--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col1a1-Itga11.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col1a1-Itga11.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.32821866666666</v>
+        <v>25.35940266666667</v>
       </c>
       <c r="H2">
-        <v>60.98465599999999</v>
+        <v>76.078208</v>
       </c>
       <c r="I2">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654987</v>
       </c>
       <c r="J2">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654986</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.09219833333333334</v>
+        <v>0.152959</v>
       </c>
       <c r="N2">
-        <v>0.276595</v>
+        <v>0.458877</v>
       </c>
       <c r="O2">
-        <v>0.00286159320126135</v>
+        <v>0.004761500378002596</v>
       </c>
       <c r="P2">
-        <v>0.002861593201261351</v>
+        <v>0.004761500378002596</v>
       </c>
       <c r="Q2">
-        <v>1.874227880702222</v>
+        <v>3.878948872490667</v>
       </c>
       <c r="R2">
-        <v>16.86805092632</v>
+        <v>34.910539852416</v>
       </c>
       <c r="S2">
-        <v>1.19668922417025E-05</v>
+        <v>2.4696205879334E-05</v>
       </c>
       <c r="T2">
-        <v>1.19668922417025E-05</v>
+        <v>2.4696205879334E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.32821866666666</v>
+        <v>25.35940266666667</v>
       </c>
       <c r="H3">
-        <v>60.98465599999999</v>
+        <v>76.078208</v>
       </c>
       <c r="I3">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654987</v>
       </c>
       <c r="J3">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654986</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>94.809954</v>
       </c>
       <c r="O3">
-        <v>0.9808836738852885</v>
+        <v>0.9837878817404418</v>
       </c>
       <c r="P3">
-        <v>0.9808836738852885</v>
+        <v>0.9837878817404418</v>
       </c>
       <c r="Q3">
-        <v>642.4391588962027</v>
+        <v>801.4412667647148</v>
       </c>
       <c r="R3">
-        <v>5781.952430065824</v>
+        <v>7212.971400882433</v>
       </c>
       <c r="S3">
-        <v>0.004101955939040006</v>
+        <v>0.005102557206820534</v>
       </c>
       <c r="T3">
-        <v>0.004101955939040006</v>
+        <v>0.005102557206820533</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.32821866666666</v>
+        <v>25.35940266666667</v>
       </c>
       <c r="H4">
-        <v>60.98465599999999</v>
+        <v>76.078208</v>
       </c>
       <c r="I4">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654987</v>
       </c>
       <c r="J4">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654986</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4999033333333334</v>
+        <v>0.2671263333333334</v>
       </c>
       <c r="N4">
-        <v>1.49971</v>
+        <v>0.8013790000000001</v>
       </c>
       <c r="O4">
-        <v>0.0155156815555728</v>
+        <v>0.008315444904458803</v>
       </c>
       <c r="P4">
-        <v>0.0155156815555728</v>
+        <v>0.008315444904458805</v>
       </c>
       <c r="Q4">
-        <v>10.16214427219555</v>
+        <v>6.774164249870223</v>
       </c>
       <c r="R4">
-        <v>91.45929844976</v>
+        <v>60.96747824883201</v>
       </c>
       <c r="S4">
-        <v>6.488500502107287E-05</v>
+        <v>4.312924982375408E-05</v>
       </c>
       <c r="T4">
-        <v>6.488500502107287E-05</v>
+        <v>4.312924982375408E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.32821866666666</v>
+        <v>25.35940266666667</v>
       </c>
       <c r="H5">
-        <v>60.98465599999999</v>
+        <v>76.078208</v>
       </c>
       <c r="I5">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654987</v>
       </c>
       <c r="J5">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654986</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.02381166666666667</v>
+        <v>0.1007146666666667</v>
       </c>
       <c r="N5">
-        <v>0.071435</v>
+        <v>0.302144</v>
       </c>
       <c r="O5">
-        <v>0.0007390513578774184</v>
+        <v>0.00313517297709673</v>
       </c>
       <c r="P5">
-        <v>0.0007390513578774185</v>
+        <v>0.00313517297709673</v>
       </c>
       <c r="Q5">
-        <v>0.4840487668177777</v>
+        <v>2.554063786439111</v>
       </c>
       <c r="R5">
-        <v>4.35643890136</v>
+        <v>22.986574077952</v>
       </c>
       <c r="S5">
-        <v>3.090637745751071E-06</v>
+        <v>1.626102513136525E-05</v>
       </c>
       <c r="T5">
-        <v>3.090637745751072E-06</v>
+        <v>1.626102513136525E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>14429.688964</v>
       </c>
       <c r="I6">
-        <v>0.9894865072215304</v>
+        <v>0.9837462940761621</v>
       </c>
       <c r="J6">
-        <v>0.9894865072215304</v>
+        <v>0.983746294076162</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.09219833333333334</v>
+        <v>0.152959</v>
       </c>
       <c r="N6">
-        <v>0.276595</v>
+        <v>0.458877</v>
       </c>
       <c r="O6">
-        <v>0.00286159320126135</v>
+        <v>0.004761500378002596</v>
       </c>
       <c r="P6">
-        <v>0.002861593201261351</v>
+        <v>0.004761500378002596</v>
       </c>
       <c r="Q6">
-        <v>443.4644243330645</v>
+        <v>735.7169314148255</v>
       </c>
       <c r="R6">
-        <v>3991.179818997581</v>
+        <v>6621.452382733429</v>
       </c>
       <c r="S6">
-        <v>0.002831507861804972</v>
+        <v>0.004684108351102299</v>
       </c>
       <c r="T6">
-        <v>0.002831507861804972</v>
+        <v>0.004684108351102298</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>14429.688964</v>
       </c>
       <c r="I7">
-        <v>0.9894865072215304</v>
+        <v>0.9837462940761621</v>
       </c>
       <c r="J7">
-        <v>0.9894865072215304</v>
+        <v>0.983746294076162</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>94.809954</v>
       </c>
       <c r="O7">
-        <v>0.9808836738852885</v>
+        <v>0.9837878817404418</v>
       </c>
       <c r="P7">
-        <v>0.9808836738852885</v>
+        <v>0.9837878817404418</v>
       </c>
       <c r="Q7">
         <v>152008.6829901275</v>
@@ -883,10 +883,10 @@
         <v>1368078.146911148</v>
       </c>
       <c r="S7">
-        <v>0.9705711604633769</v>
+        <v>0.9677976828191973</v>
       </c>
       <c r="T7">
-        <v>0.9705711604633769</v>
+        <v>0.9677976828191972</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,40 +915,40 @@
         <v>14429.688964</v>
       </c>
       <c r="I8">
-        <v>0.9894865072215304</v>
+        <v>0.9837462940761621</v>
       </c>
       <c r="J8">
-        <v>0.9894865072215304</v>
+        <v>0.983746294076162</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4999033333333334</v>
+        <v>0.2671263333333334</v>
       </c>
       <c r="N8">
-        <v>1.49971</v>
+        <v>0.8013790000000001</v>
       </c>
       <c r="O8">
-        <v>0.0155156815555728</v>
+        <v>0.008315444904458803</v>
       </c>
       <c r="P8">
-        <v>0.0155156815555728</v>
+        <v>0.008315444904458805</v>
       </c>
       <c r="Q8">
-        <v>2404.483204022271</v>
+        <v>1284.849968031262</v>
       </c>
       <c r="R8">
-        <v>21640.34883620044</v>
+        <v>11563.64971228136</v>
       </c>
       <c r="S8">
-        <v>0.01535255754958526</v>
+        <v>0.008180288108355853</v>
       </c>
       <c r="T8">
-        <v>0.01535255754958526</v>
+        <v>0.008180288108355855</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>14429.688964</v>
       </c>
       <c r="I9">
-        <v>0.9894865072215304</v>
+        <v>0.9837462940761621</v>
       </c>
       <c r="J9">
-        <v>0.9894865072215304</v>
+        <v>0.983746294076162</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.02381166666666667</v>
+        <v>0.1007146666666667</v>
       </c>
       <c r="N9">
-        <v>0.071435</v>
+        <v>0.302144</v>
       </c>
       <c r="O9">
-        <v>0.0007390513578774184</v>
+        <v>0.00313517297709673</v>
       </c>
       <c r="P9">
-        <v>0.0007390513578774185</v>
+        <v>0.00313517297709673</v>
       </c>
       <c r="Q9">
-        <v>114.5316479048156</v>
+        <v>484.4271047043129</v>
       </c>
       <c r="R9">
-        <v>1030.78483114334</v>
+        <v>4359.843942338815</v>
       </c>
       <c r="S9">
-        <v>0.000731281346763456</v>
+        <v>0.003084214797506636</v>
       </c>
       <c r="T9">
-        <v>0.0007312813467634561</v>
+        <v>0.003084214797506636</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.08283533333333</v>
+        <v>51.27300266666666</v>
       </c>
       <c r="H10">
-        <v>84.24850599999999</v>
+        <v>153.819008</v>
       </c>
       <c r="I10">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="J10">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1051,28 +1051,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.09219833333333334</v>
+        <v>0.152959</v>
       </c>
       <c r="N10">
-        <v>0.276595</v>
+        <v>0.458877</v>
       </c>
       <c r="O10">
-        <v>0.00286159320126135</v>
+        <v>0.004761500378002596</v>
       </c>
       <c r="P10">
-        <v>0.002861593201261351</v>
+        <v>0.004761500378002596</v>
       </c>
       <c r="Q10">
-        <v>2.589190613007778</v>
+        <v>7.842667214890667</v>
       </c>
       <c r="R10">
-        <v>23.30271551707</v>
+        <v>70.58400493401601</v>
       </c>
       <c r="S10">
-        <v>1.653190915476224E-05</v>
+        <v>4.993211577384844E-05</v>
       </c>
       <c r="T10">
-        <v>1.653190915476224E-05</v>
+        <v>4.993211577384844E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>28.08283533333333</v>
+        <v>51.27300266666666</v>
       </c>
       <c r="H11">
-        <v>84.24850599999999</v>
+        <v>153.819008</v>
       </c>
       <c r="I11">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="J11">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>94.809954</v>
       </c>
       <c r="O11">
-        <v>0.9808836738852885</v>
+        <v>0.9837878817404418</v>
       </c>
       <c r="P11">
-        <v>0.9808836738852885</v>
+        <v>0.9837878817404418</v>
       </c>
       <c r="Q11">
-        <v>887.5107753809693</v>
+        <v>1620.397008089515</v>
       </c>
       <c r="R11">
-        <v>7987.596978428724</v>
+        <v>14583.57307280563</v>
       </c>
       <c r="S11">
-        <v>0.005666731309297663</v>
+        <v>0.01031662427979882</v>
       </c>
       <c r="T11">
-        <v>0.005666731309297663</v>
+        <v>0.01031662427979882</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>28.08283533333333</v>
+        <v>51.27300266666666</v>
       </c>
       <c r="H12">
-        <v>84.24850599999999</v>
+        <v>153.819008</v>
       </c>
       <c r="I12">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="J12">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.4999033333333334</v>
+        <v>0.2671263333333334</v>
       </c>
       <c r="N12">
-        <v>1.49971</v>
+        <v>0.8013790000000001</v>
       </c>
       <c r="O12">
-        <v>0.0155156815555728</v>
+        <v>0.008315444904458803</v>
       </c>
       <c r="P12">
-        <v>0.0155156815555728</v>
+        <v>0.008315444904458805</v>
       </c>
       <c r="Q12">
-        <v>14.03870299258444</v>
+        <v>13.69636920133689</v>
       </c>
       <c r="R12">
-        <v>126.34832693326</v>
+        <v>123.267322812032</v>
       </c>
       <c r="S12">
-        <v>8.963672329032876E-05</v>
+        <v>8.720103427875202E-05</v>
       </c>
       <c r="T12">
-        <v>8.963672329032876E-05</v>
+        <v>8.720103427875203E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>28.08283533333333</v>
+        <v>51.27300266666666</v>
       </c>
       <c r="H13">
-        <v>84.24850599999999</v>
+        <v>153.819008</v>
       </c>
       <c r="I13">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="J13">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.02381166666666667</v>
+        <v>0.1007146666666667</v>
       </c>
       <c r="N13">
-        <v>0.071435</v>
+        <v>0.302144</v>
       </c>
       <c r="O13">
-        <v>0.0007390513578774184</v>
+        <v>0.00313517297709673</v>
       </c>
       <c r="P13">
-        <v>0.0007390513578774185</v>
+        <v>0.00313517297709673</v>
       </c>
       <c r="Q13">
-        <v>0.6686991140122222</v>
+        <v>5.163943372572444</v>
       </c>
       <c r="R13">
-        <v>6.018292026109999</v>
+        <v>46.475490353152</v>
       </c>
       <c r="S13">
-        <v>4.269625012998935E-06</v>
+        <v>3.28774141836999E-05</v>
       </c>
       <c r="T13">
-        <v>4.269625012998936E-06</v>
+        <v>3.287741418369991E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.69506</v>
+        <v>2.837922333333333</v>
       </c>
       <c r="H14">
-        <v>8.085180000000001</v>
+        <v>8.513767</v>
       </c>
       <c r="I14">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477663</v>
       </c>
       <c r="J14">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477662</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1299,28 +1299,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.09219833333333334</v>
+        <v>0.152959</v>
       </c>
       <c r="N14">
-        <v>0.276595</v>
+        <v>0.458877</v>
       </c>
       <c r="O14">
-        <v>0.00286159320126135</v>
+        <v>0.004761500378002596</v>
       </c>
       <c r="P14">
-        <v>0.002861593201261351</v>
+        <v>0.004761500378002596</v>
       </c>
       <c r="Q14">
-        <v>0.2484800402333334</v>
+        <v>0.4340857621843334</v>
       </c>
       <c r="R14">
-        <v>2.236320362100001</v>
+        <v>3.906771859659</v>
       </c>
       <c r="S14">
-        <v>1.58653805991409E-06</v>
+        <v>2.763705247114651E-06</v>
       </c>
       <c r="T14">
-        <v>1.58653805991409E-06</v>
+        <v>2.76370524711465E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.69506</v>
+        <v>2.837922333333333</v>
       </c>
       <c r="H15">
-        <v>8.085180000000001</v>
+        <v>8.513767</v>
       </c>
       <c r="I15">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477663</v>
       </c>
       <c r="J15">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477662</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>94.809954</v>
       </c>
       <c r="O15">
-        <v>0.9808836738852885</v>
+        <v>0.9837878817404418</v>
       </c>
       <c r="P15">
-        <v>0.9808836738852885</v>
+        <v>0.9837878817404418</v>
       </c>
       <c r="Q15">
-        <v>85.17283820908001</v>
+        <v>89.68776195963534</v>
       </c>
       <c r="R15">
-        <v>766.5555438817202</v>
+        <v>807.189857636718</v>
       </c>
       <c r="S15">
-        <v>0.0005438261735740131</v>
+        <v>0.0005710174346251798</v>
       </c>
       <c r="T15">
-        <v>0.0005438261735740131</v>
+        <v>0.0005710174346251796</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,46 +1405,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.69506</v>
+        <v>2.837922333333333</v>
       </c>
       <c r="H16">
-        <v>8.085180000000001</v>
+        <v>8.513767</v>
       </c>
       <c r="I16">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477663</v>
       </c>
       <c r="J16">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477662</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4999033333333334</v>
+        <v>0.2671263333333334</v>
       </c>
       <c r="N16">
-        <v>1.49971</v>
+        <v>0.8013790000000001</v>
       </c>
       <c r="O16">
-        <v>0.0155156815555728</v>
+        <v>0.008315444904458803</v>
       </c>
       <c r="P16">
-        <v>0.0155156815555728</v>
+        <v>0.008315444904458805</v>
       </c>
       <c r="Q16">
-        <v>1.347269477533334</v>
+        <v>0.7580837871881111</v>
       </c>
       <c r="R16">
-        <v>12.1254252978</v>
+        <v>6.822754084693</v>
       </c>
       <c r="S16">
-        <v>8.602277676146569E-06</v>
+        <v>4.826512000443455E-06</v>
       </c>
       <c r="T16">
-        <v>8.602277676146569E-06</v>
+        <v>4.826512000443455E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.69506</v>
+        <v>2.837922333333333</v>
       </c>
       <c r="H17">
-        <v>8.085180000000001</v>
+        <v>8.513767</v>
       </c>
       <c r="I17">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477663</v>
       </c>
       <c r="J17">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477662</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.02381166666666667</v>
+        <v>0.1007146666666667</v>
       </c>
       <c r="N17">
-        <v>0.071435</v>
+        <v>0.302144</v>
       </c>
       <c r="O17">
-        <v>0.0007390513578774184</v>
+        <v>0.00313517297709673</v>
       </c>
       <c r="P17">
-        <v>0.0007390513578774185</v>
+        <v>0.00313517297709673</v>
       </c>
       <c r="Q17">
-        <v>0.06417387036666666</v>
+        <v>0.2858204018275555</v>
       </c>
       <c r="R17">
-        <v>0.5775648333000001</v>
+        <v>2.572383616448</v>
       </c>
       <c r="S17">
-        <v>4.097483552123611E-07</v>
+        <v>1.819740275028404E-06</v>
       </c>
       <c r="T17">
-        <v>4.097483552123612E-07</v>
+        <v>1.819740275028403E-06</v>
       </c>
     </row>
   </sheetData>
